--- a/MS Projects/Waterhemp Resistance/Data Analysis - PRE/RAW COUNTRED_POPxHERBxRATE.xlsx
+++ b/MS Projects/Waterhemp Resistance/Data Analysis - PRE/RAW COUNTRED_POPxHERBxRATE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/Master's - UW/MY RESEARCH PROJECTS/Waterhemp Resistance/Screenings/Pre/Data Analysis - All PRE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwprod-my.sharepoint.com/personal/deandradefal_wisc_edu/Documents/Documents/GitHub/FFaleco/MS Projects/Waterhemp Resistance/Data Analysis - PRE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_B892CDEFBAB13F7EF7428E5642558A124A5A949B" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{6B4D08B0-2F6E-4EAB-9101-34E96C924285}"/>
+  <xr:revisionPtr revIDLastSave="91" documentId="11_B892CDEFBAB13F7EF7428E5642558A124A5A949B" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{4053CA8A-802C-4721-A120-D21E4E3AF8AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,25 @@
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$H$445</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$J$445</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="48">
   <si>
     <t>pop</t>
   </si>
@@ -161,6 +172,12 @@
   </si>
   <si>
     <t>A91</t>
+  </si>
+  <si>
+    <t>LI</t>
+  </si>
+  <si>
+    <t>LS</t>
   </si>
 </sst>
 </file>
@@ -494,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H445"/>
+  <dimension ref="A1:J445"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,10 +523,12 @@
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,10 +551,16 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -558,10 +583,18 @@
         <v>0.12556130294383899</v>
       </c>
       <c r="H2">
+        <f>E2-G2</f>
+        <v>0.46632466193116101</v>
+      </c>
+      <c r="I2">
+        <f>E2+G2</f>
+        <v>0.71744726781883905</v>
+      </c>
+      <c r="J2">
         <v>0.246095631621847</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -584,10 +617,18 @@
         <v>5.3536497999714598E-2</v>
       </c>
       <c r="H3">
+        <f t="shared" ref="H3:H66" si="0">E3-G3</f>
+        <v>0.71093718623778535</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="1">E3+G3</f>
+        <v>0.81801018223721456</v>
+      </c>
+      <c r="J3">
         <v>0.10492960793784099</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -610,10 +651,18 @@
         <v>5.1026576564070003E-2</v>
       </c>
       <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.71881991481092999</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>0.82087306793907011</v>
+      </c>
+      <c r="J4">
         <v>0.100010252319953</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -636,10 +685,18 @@
         <v>8.6108830644154206E-3</v>
       </c>
       <c r="H5">
+        <f t="shared" si="0"/>
+        <v>0.97374205787308465</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>0.99096382400191541</v>
+      </c>
+      <c r="J5">
         <v>1.6877020681340098E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -662,10 +719,18 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -688,10 +753,18 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -714,10 +787,18 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -740,10 +821,18 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -766,10 +855,18 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -792,10 +889,18 @@
         <v>3.55139692145333E-2</v>
       </c>
       <c r="H11">
+        <f t="shared" si="0"/>
+        <v>0.91206667583546663</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0.98309461426453326</v>
+      </c>
+      <c r="J11">
         <v>6.9606100608549507E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -818,10 +923,18 @@
         <v>1.96345180791377E-2</v>
       </c>
       <c r="H12">
+        <f t="shared" si="0"/>
+        <v>0.92841742987086229</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>0.96768646602913777</v>
+      </c>
+      <c r="J12">
         <v>3.8482948288910503E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -844,10 +957,18 @@
         <v>3.8922490098179198E-2</v>
       </c>
       <c r="H13">
+        <f t="shared" si="0"/>
+        <v>0.91613368957682084</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>0.99397866977317917</v>
+      </c>
+      <c r="J13">
         <v>7.6286678781048001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -870,10 +991,18 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -896,10 +1025,18 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -922,10 +1059,18 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -948,10 +1093,18 @@
         <v>8.0645161124999996E-3</v>
       </c>
       <c r="H17">
+        <f t="shared" si="0"/>
+        <v>0.98387096767499993</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J17">
         <v>1.5806161133242999E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -974,10 +1127,18 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1000,10 +1161,18 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -1026,10 +1195,18 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>17</v>
       </c>
@@ -1052,10 +1229,18 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -1078,10 +1263,18 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
@@ -1104,10 +1297,18 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -1130,10 +1331,18 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>17</v>
       </c>
@@ -1156,10 +1365,18 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>18</v>
       </c>
@@ -1182,10 +1399,18 @@
         <v>9.8087969980435397E-2</v>
       </c>
       <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0.40317999278206457</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0.59935593274293542</v>
+      </c>
+      <c r="J26">
         <v>0.19224888847829899</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -1208,10 +1433,18 @@
         <v>0.155586149329873</v>
       </c>
       <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.356670824570127</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.66784312322987305</v>
+      </c>
+      <c r="J27">
         <v>0.30494324917982302</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -1234,10 +1467,18 @@
         <v>9.6845728500217401E-2</v>
       </c>
       <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0.70394322623728256</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="1"/>
+        <v>0.89763468323771745</v>
+      </c>
+      <c r="J28">
         <v>0.18981413991696999</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>18</v>
       </c>
@@ -1260,10 +1501,18 @@
         <v>5.2722391991911602E-2</v>
       </c>
       <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0.87397067733308831</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="1"/>
+        <v>0.9794154613169116</v>
+      </c>
+      <c r="J29">
         <v>0.10333398948295</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -1286,10 +1535,18 @@
         <v>4.9504949874999999E-3</v>
       </c>
       <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0.990099009925</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J30">
         <v>9.7027918811460594E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -1312,10 +1569,18 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -1338,10 +1603,18 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>18</v>
       </c>
@@ -1364,10 +1637,18 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -1390,10 +1671,18 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1416,10 +1705,18 @@
         <v>4.2105263112499999E-2</v>
       </c>
       <c r="H35">
+        <f t="shared" si="0"/>
+        <v>0.91578947367500008</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J35">
         <v>8.2524799260082798E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1442,10 +1739,18 @@
         <v>4.16666666125E-2</v>
       </c>
       <c r="H36">
+        <f t="shared" si="0"/>
+        <v>0.91666666667500007</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J36">
         <v>8.1665165916337504E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>43</v>
       </c>
@@ -1468,10 +1773,18 @@
         <v>4.0145985362499997E-2</v>
       </c>
       <c r="H37">
+        <f t="shared" si="0"/>
+        <v>0.91970802917499994</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J37">
         <v>7.8684685434372195E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -1494,10 +1807,18 @@
         <v>4.9504949874999999E-3</v>
       </c>
       <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0.990099009925</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J38">
         <v>9.7027918811460594E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>18</v>
       </c>
@@ -1520,10 +1841,18 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1546,10 +1875,18 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -1572,10 +1909,18 @@
         <v>4.9269677349472497E-2</v>
       </c>
       <c r="H41">
+        <f t="shared" si="0"/>
+        <v>0.83902152462552748</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>0.93756087932447252</v>
+      </c>
+      <c r="J41">
         <v>9.6566793134874901E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -1598,10 +1943,18 @@
         <v>3.7885910200761097E-2</v>
       </c>
       <c r="H42">
+        <f t="shared" si="0"/>
+        <v>0.838986903649239</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>0.91475872405076109</v>
+      </c>
+      <c r="J42">
         <v>7.4255019515010401E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -1624,10 +1977,18 @@
         <v>1.96630319400329E-2</v>
       </c>
       <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0.93086828614746708</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>0.97019435002753296</v>
+      </c>
+      <c r="J43">
         <v>3.8538834429325299E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -1650,10 +2011,18 @@
         <v>2.18217889526784E-2</v>
       </c>
       <c r="H44">
+        <f t="shared" si="0"/>
+        <v>0.94484487772232162</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>0.9884884556276784</v>
+      </c>
+      <c r="J44">
         <v>4.27699204254837E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -1676,10 +2045,18 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -1702,10 +2079,18 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -1728,10 +2113,18 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -1754,10 +2147,18 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -1780,10 +2181,18 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -1806,10 +2215,18 @@
         <v>2.5042598504566801E-2</v>
       </c>
       <c r="H50">
+        <f t="shared" si="0"/>
+        <v>0.93886717585257617</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="1"/>
+        <v>0.98895237286170978</v>
+      </c>
+      <c r="J50">
         <v>4.9082591148247499E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -1832,10 +2249,18 @@
         <v>2.8203388670704401E-2</v>
       </c>
       <c r="H51">
+        <f t="shared" si="0"/>
+        <v>0.94015104162929564</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="1"/>
+        <v>0.99655781897070439</v>
+      </c>
+      <c r="J51">
         <v>5.5277626036565497E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -1858,10 +2283,18 @@
         <v>1.48478467747684E-2</v>
       </c>
       <c r="H52">
+        <f t="shared" si="0"/>
+        <v>0.95737437528773162</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="1"/>
+        <v>0.98707006883726833</v>
+      </c>
+      <c r="J52">
         <v>2.91012449265153E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -1884,10 +2317,18 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1910,10 +2351,18 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1936,10 +2385,18 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>20</v>
       </c>
@@ -1962,10 +2419,18 @@
         <v>0.131450700030767</v>
       </c>
       <c r="H56">
+        <f t="shared" si="0"/>
+        <v>0.390564502231733</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>0.65346590229326695</v>
+      </c>
+      <c r="J56">
         <v>0.25763863780288199</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>20</v>
       </c>
@@ -1988,10 +2453,18 @@
         <v>5.63900431965546E-2</v>
       </c>
       <c r="H57">
+        <f t="shared" si="0"/>
+        <v>0.68118874804094542</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="1"/>
+        <v>0.79396883443405464</v>
+      </c>
+      <c r="J57">
         <v>0.110522453751905</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>20</v>
       </c>
@@ -2014,10 +2487,18 @@
         <v>7.3752572680419695E-2</v>
       </c>
       <c r="H58">
+        <f t="shared" si="0"/>
+        <v>0.64728005618208029</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="1"/>
+        <v>0.79478520154291965</v>
+      </c>
+      <c r="J58">
         <v>0.144552386220795</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -2040,10 +2521,18 @@
         <v>4.1435820119735303E-2</v>
       </c>
       <c r="H59">
+        <f t="shared" si="0"/>
+        <v>0.76818617274276468</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="1"/>
+        <v>0.85105781298223537</v>
+      </c>
+      <c r="J59">
         <v>8.1212715104561406E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>20</v>
       </c>
@@ -2066,10 +2555,18 @@
         <v>4.1985606904649801E-2</v>
       </c>
       <c r="H60">
+        <f t="shared" si="0"/>
+        <v>0.82239010893285014</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>0.90636132274214976</v>
+      </c>
+      <c r="J60">
         <v>8.2290277402169695E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>20</v>
       </c>
@@ -2092,10 +2589,18 @@
         <v>2.5846728671727999E-2</v>
       </c>
       <c r="H61">
+        <f t="shared" si="0"/>
+        <v>0.93291615789077198</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="1"/>
+        <v>0.98460961523422796</v>
+      </c>
+      <c r="J61">
         <v>5.0658657314765598E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>20</v>
       </c>
@@ -2118,10 +2623,18 @@
         <v>4.98092343164293E-2</v>
       </c>
       <c r="H62">
+        <f t="shared" si="0"/>
+        <v>0.84114151013357075</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="1"/>
+        <v>0.94075997876642925</v>
+      </c>
+      <c r="J62">
         <v>9.7624305357717905E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>20</v>
       </c>
@@ -2144,10 +2657,18 @@
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -2170,10 +2691,18 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="1"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -2196,10 +2725,18 @@
         <v>1.6129032247023799E-2</v>
       </c>
       <c r="H65">
+        <f t="shared" si="0"/>
+        <v>0.95698924719047618</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="1"/>
+        <v>0.98924731168452373</v>
+      </c>
+      <c r="J65">
         <v>3.1612322309651802E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>20</v>
       </c>
@@ -2222,10 +2759,18 @@
         <v>8.4855528755459798E-3</v>
       </c>
       <c r="H66">
+        <f t="shared" si="0"/>
+        <v>0.97941767292445403</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="1"/>
+        <v>0.99638877867554598</v>
+      </c>
+      <c r="J66">
         <v>1.6631378024980398E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>32</v>
       </c>
@@ -2248,10 +2793,18 @@
         <v>1.06382978625E-2</v>
       </c>
       <c r="H67">
+        <f t="shared" ref="H67:H130" si="2">E67-G67</f>
+        <v>0.97872340417499992</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="3">E67+G67</f>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J67">
         <v>2.0850680667309399E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>20</v>
       </c>
@@ -2274,10 +2827,18 @@
         <v>2.2269871193806901E-2</v>
       </c>
       <c r="H68">
+        <f t="shared" si="2"/>
+        <v>0.9356911824936931</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="3"/>
+        <v>0.98023092488130681</v>
+      </c>
+      <c r="J68">
         <v>4.3648145480207401E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>20</v>
       </c>
@@ -2300,10 +2861,18 @@
         <v>5.1546391124999997E-3</v>
       </c>
       <c r="H69">
+        <f t="shared" si="2"/>
+        <v>0.98969072167499994</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J69">
         <v>1.0102907013801499E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>20</v>
       </c>
@@ -2326,10 +2895,18 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>21</v>
       </c>
@@ -2352,10 +2929,18 @@
         <v>6.5822659317556695E-2</v>
       </c>
       <c r="H71">
+        <f t="shared" si="2"/>
+        <v>0.74459304240744328</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="3"/>
+        <v>0.8762383610425567</v>
+      </c>
+      <c r="J71">
         <v>0.12901004162906099</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>21</v>
       </c>
@@ -2378,10 +2963,18 @@
         <v>2.8416561170077299E-2</v>
       </c>
       <c r="H72">
+        <f t="shared" si="2"/>
+        <v>0.87889006230492273</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="3"/>
+        <v>0.93572318464507731</v>
+      </c>
+      <c r="J72">
         <v>5.5695436457830802E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -2404,10 +2997,18 @@
         <v>7.7368276107401997E-3</v>
       </c>
       <c r="H73">
+        <f t="shared" si="2"/>
+        <v>0.98123376056425982</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="3"/>
+        <v>0.99670741578574029</v>
+      </c>
+      <c r="J73">
         <v>1.5163903471645901E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -2430,10 +3031,18 @@
         <v>1.1969494321607901E-2</v>
       </c>
       <c r="H74">
+        <f t="shared" si="2"/>
+        <v>0.97145210360339207</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="3"/>
+        <v>0.99539109224660782</v>
+      </c>
+      <c r="J74">
         <v>2.34597777835082E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>21</v>
       </c>
@@ -2456,10 +3065,18 @@
         <v>1.1627906987500001E-2</v>
       </c>
       <c r="H75">
+        <f t="shared" si="2"/>
+        <v>0.97674418592500001</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="3"/>
+        <v>0.9999999999000001</v>
+      </c>
+      <c r="J75">
         <v>2.27902789110816E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>21</v>
       </c>
@@ -2482,10 +3099,18 @@
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -2508,10 +3133,18 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>21</v>
       </c>
@@ -2534,10 +3167,18 @@
         <v>0</v>
       </c>
       <c r="H78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>21</v>
       </c>
@@ -2560,10 +3201,18 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>23</v>
       </c>
@@ -2586,10 +3235,18 @@
         <v>6.3291138625000002E-3</v>
       </c>
       <c r="H80">
+        <f t="shared" si="2"/>
+        <v>0.98734177217499997</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J80">
         <v>1.24048352245532E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>45</v>
       </c>
@@ -2612,10 +3269,18 @@
         <v>6.0150375571428501E-3</v>
       </c>
       <c r="H81">
+        <f t="shared" si="2"/>
+        <v>0.98796992478571422</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999988</v>
+      </c>
+      <c r="J81">
         <v>1.17892569776558E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -2638,10 +3303,18 @@
         <v>5.9171597375000003E-3</v>
       </c>
       <c r="H82">
+        <f t="shared" si="2"/>
+        <v>0.98816568042500008</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J82">
         <v>1.15974199762705E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>21</v>
       </c>
@@ -2664,10 +3337,18 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>21</v>
       </c>
@@ -2690,10 +3371,18 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>21</v>
       </c>
@@ -2716,10 +3405,18 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>22</v>
       </c>
@@ -2742,10 +3439,18 @@
         <v>0.12967450088655999</v>
       </c>
       <c r="H86">
+        <f t="shared" si="2"/>
+        <v>0.51199216583843998</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="3"/>
+        <v>0.77134116761155991</v>
+      </c>
+      <c r="J86">
         <v>0.25415735145086599</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>22</v>
       </c>
@@ -2768,10 +3473,18 @@
         <v>4.7974861141721503E-2</v>
       </c>
       <c r="H87">
+        <f t="shared" si="2"/>
+        <v>0.80202513882077842</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="3"/>
+        <v>0.89797486110422153</v>
+      </c>
+      <c r="J87">
         <v>9.4029000001084301E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -2794,10 +3507,18 @@
         <v>5.7735026917931601E-2</v>
       </c>
       <c r="H88">
+        <f t="shared" si="2"/>
+        <v>0.75893163980706835</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="3"/>
+        <v>0.87440169364293163</v>
+      </c>
+      <c r="J88">
         <v>0.113158573405596</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -2820,10 +3541,18 @@
         <v>3.3134534290795402E-2</v>
       </c>
       <c r="H89">
+        <f t="shared" si="2"/>
+        <v>0.89052137954670463</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="3"/>
+        <v>0.95679044812829539</v>
+      </c>
+      <c r="J89">
         <v>6.4942493854466404E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>22</v>
       </c>
@@ -2846,10 +3575,18 @@
         <v>1.14951071454417E-2</v>
       </c>
       <c r="H90">
+        <f t="shared" si="2"/>
+        <v>0.96699951641705839</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="3"/>
+        <v>0.98998973070794172</v>
+      </c>
+      <c r="J90">
         <v>2.2529996003494802E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>22</v>
       </c>
@@ -2872,10 +3609,18 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>22</v>
       </c>
@@ -2898,10 +3643,18 @@
         <v>0</v>
       </c>
       <c r="H92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>22</v>
       </c>
@@ -2924,10 +3677,18 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>22</v>
       </c>
@@ -2950,10 +3711,18 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>41</v>
       </c>
@@ -2976,10 +3745,18 @@
         <v>4.9019607374999998E-3</v>
       </c>
       <c r="H95">
+        <f t="shared" si="2"/>
+        <v>0.9901960784249999</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J95">
         <v>9.6076664991294105E-3</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>31</v>
       </c>
@@ -3002,10 +3779,18 @@
         <v>4.3859648624999898E-3</v>
       </c>
       <c r="H96">
+        <f t="shared" si="2"/>
+        <v>0.99122807017500003</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J96">
         <v>8.5963331679581607E-3</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>40</v>
       </c>
@@ -3028,10 +3813,18 @@
         <v>3.9062499874999998E-3</v>
       </c>
       <c r="H97">
+        <f t="shared" si="2"/>
+        <v>0.99218749992499999</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J97">
         <v>7.6561092901100301E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -3054,10 +3847,18 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -3080,10 +3881,18 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>22</v>
       </c>
@@ -3106,10 +3915,18 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -3132,10 +3949,18 @@
         <v>0.1235495076866</v>
       </c>
       <c r="H101">
+        <f t="shared" si="2"/>
+        <v>0.68815935302590003</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="3"/>
+        <v>0.93525836839910004</v>
+      </c>
+      <c r="J101">
         <v>0.24215258537338999</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -3158,10 +3983,18 @@
         <v>4.0352656234596503E-2</v>
       </c>
       <c r="H102">
+        <f t="shared" si="2"/>
+        <v>0.88633510746540345</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="3"/>
+        <v>0.96704041993459644</v>
+      </c>
+      <c r="J102">
         <v>7.9089752900334806E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -3184,10 +4017,18 @@
         <v>4.1241025634415E-2</v>
       </c>
       <c r="H103">
+        <f t="shared" si="2"/>
+        <v>0.91076319379058501</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="3"/>
+        <v>0.99324524505941503</v>
+      </c>
+      <c r="J103">
         <v>8.0830924928946404E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -3210,10 +4051,18 @@
         <v>1.13636363625E-2</v>
       </c>
       <c r="H104">
+        <f t="shared" si="2"/>
+        <v>0.97727272717499991</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J104">
         <v>2.2272318003909702E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -3236,10 +4085,18 @@
         <v>1.13636363625E-2</v>
       </c>
       <c r="H105">
+        <f t="shared" si="2"/>
+        <v>0.97727272717499991</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J105">
         <v>2.2272318003909702E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -3262,10 +4119,18 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -3288,10 +4153,18 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -3314,10 +4187,18 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -3340,10 +4221,18 @@
         <v>0</v>
       </c>
       <c r="H109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>36</v>
       </c>
@@ -3366,10 +4255,18 @@
         <v>3.8167938625E-3</v>
       </c>
       <c r="H110">
+        <f t="shared" si="2"/>
+        <v>0.99236641217499999</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J110">
         <v>7.4807785069135203E-3</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -3392,10 +4289,18 @@
         <v>3.5971222375E-3</v>
       </c>
       <c r="H111">
+        <f t="shared" si="2"/>
+        <v>0.99280575542500005</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J111">
         <v>7.05023003348813E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>42</v>
       </c>
@@ -3418,10 +4323,18 @@
         <v>3.3112582374999998E-3</v>
       </c>
       <c r="H112">
+        <f t="shared" si="2"/>
+        <v>0.99337748342499999</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J112">
         <v>6.4899468890115804E-3</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -3444,10 +4357,18 @@
         <v>0</v>
       </c>
       <c r="H113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>23</v>
       </c>
@@ -3470,10 +4391,18 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>23</v>
       </c>
@@ -3496,10 +4425,18 @@
         <v>0</v>
       </c>
       <c r="H115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>24</v>
       </c>
@@ -3522,10 +4459,18 @@
         <v>8.9481564095615806E-2</v>
       </c>
       <c r="H116">
+        <f t="shared" si="2"/>
+        <v>0.41051843591688419</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="3"/>
+        <v>0.58948156410811581</v>
+      </c>
+      <c r="J116">
         <v>0.17538064290771899</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>24</v>
       </c>
@@ -3548,10 +4493,18 @@
         <v>5.1025444115297601E-2</v>
       </c>
       <c r="H117">
+        <f t="shared" si="2"/>
+        <v>0.78978652172220232</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="3"/>
+        <v>0.89183740995279759</v>
+      </c>
+      <c r="J117">
         <v>0.10000803276114401</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>24</v>
       </c>
@@ -3574,10 +4527,18 @@
         <v>2.2609653336718102E-2</v>
       </c>
       <c r="H118">
+        <f t="shared" si="2"/>
+        <v>0.92076641498828193</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="3"/>
+        <v>0.96598572166171803</v>
+      </c>
+      <c r="J118">
         <v>4.4314106242903301E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>24</v>
       </c>
@@ -3600,10 +4561,18 @@
         <v>9.2592592374999994E-3</v>
       </c>
       <c r="H119">
+        <f t="shared" si="2"/>
+        <v>0.98148148142499991</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J119">
         <v>1.81478146290198E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>24</v>
       </c>
@@ -3626,10 +4595,18 @@
         <v>0</v>
       </c>
       <c r="H120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>24</v>
       </c>
@@ -3652,10 +4629,18 @@
         <v>0</v>
       </c>
       <c r="H121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>24</v>
       </c>
@@ -3678,10 +4663,18 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>24</v>
       </c>
@@ -3704,10 +4697,18 @@
         <v>0</v>
       </c>
       <c r="H123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>24</v>
       </c>
@@ -3730,10 +4731,18 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>8</v>
       </c>
@@ -3756,10 +4765,18 @@
         <v>0</v>
       </c>
       <c r="H125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -3782,10 +4799,18 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>18</v>
       </c>
@@ -3808,10 +4833,18 @@
         <v>0</v>
       </c>
       <c r="H127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>24</v>
       </c>
@@ -3834,10 +4867,18 @@
         <v>9.2592592374999994E-3</v>
       </c>
       <c r="H128">
+        <f t="shared" si="2"/>
+        <v>0.98148148142499991</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J128">
         <v>1.81478146290198E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>24</v>
       </c>
@@ -3860,10 +4901,18 @@
         <v>0</v>
       </c>
       <c r="H129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>24</v>
       </c>
@@ -3886,10 +4935,18 @@
         <v>0</v>
       </c>
       <c r="H130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="3"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>25</v>
       </c>
@@ -3912,10 +4969,18 @@
         <v>4.3992913060865203E-2</v>
       </c>
       <c r="H131">
+        <f t="shared" ref="H131:H194" si="4">E131-G131</f>
+        <v>0.72339253168913487</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ref="I131:I194" si="5">E131+G131</f>
+        <v>0.8113783578108652</v>
+      </c>
+      <c r="J131">
         <v>8.6224525174297503E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>25</v>
       </c>
@@ -3938,10 +5003,18 @@
         <v>5.8718319306331701E-2</v>
       </c>
       <c r="H132">
+        <f t="shared" si="4"/>
+        <v>0.77066173466866839</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="5"/>
+        <v>0.88809837328133168</v>
+      </c>
+      <c r="J132">
         <v>0.11508579107313301</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>25</v>
       </c>
@@ -3964,10 +5037,18 @@
         <v>2.7402840847532701E-2</v>
       </c>
       <c r="H133">
+        <f t="shared" si="4"/>
+        <v>0.9274489111024673</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="5"/>
+        <v>0.9822545927975328</v>
+      </c>
+      <c r="J133">
         <v>5.3708581135247097E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>25</v>
       </c>
@@ -3990,10 +5071,18 @@
         <v>1.7857142862500001E-2</v>
       </c>
       <c r="H134">
+        <f t="shared" si="4"/>
+        <v>0.96428571417500009</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J134">
         <v>3.4999356877286503E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -4016,10 +5105,18 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>25</v>
       </c>
@@ -4042,10 +5139,18 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>25</v>
       </c>
@@ -4068,10 +5173,18 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>25</v>
       </c>
@@ -4094,10 +5207,18 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>25</v>
       </c>
@@ -4120,10 +5241,18 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>18</v>
       </c>
@@ -4146,10 +5275,18 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -4172,10 +5309,18 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -4198,10 +5343,18 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>25</v>
       </c>
@@ -4224,10 +5377,18 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>25</v>
       </c>
@@ -4250,10 +5411,18 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>25</v>
       </c>
@@ -4276,10 +5445,18 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>26</v>
       </c>
@@ -4302,10 +5479,18 @@
         <v>2.4629787005306599E-2</v>
       </c>
       <c r="H146">
+        <f t="shared" si="4"/>
+        <v>0.86934780411969337</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="5"/>
+        <v>0.91860737813030657</v>
+      </c>
+      <c r="J146">
         <v>4.82734954772936E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>26</v>
       </c>
@@ -4328,10 +5513,18 @@
         <v>1.76356219167523E-2</v>
       </c>
       <c r="H147">
+        <f t="shared" si="4"/>
+        <v>0.94398902804574769</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="5"/>
+        <v>0.97926027187925224</v>
+      </c>
+      <c r="J147">
         <v>3.4565183801799799E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>26</v>
       </c>
@@ -4354,10 +5547,18 @@
         <v>1.47058823625E-2</v>
       </c>
       <c r="H148">
+        <f t="shared" si="4"/>
+        <v>0.97058823517499992</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J148">
         <v>2.8822999791382801E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>26</v>
       </c>
@@ -4380,10 +5581,18 @@
         <v>1.05263157375E-2</v>
       </c>
       <c r="H149">
+        <f t="shared" si="4"/>
+        <v>0.97894736842500008</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J149">
         <v>2.0631199735397201E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -4406,10 +5615,18 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>26</v>
       </c>
@@ -4432,10 +5649,18 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -4458,10 +5683,18 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -4484,10 +5717,18 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>26</v>
       </c>
@@ -4510,10 +5751,18 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>20</v>
       </c>
@@ -4536,10 +5785,18 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>21</v>
       </c>
@@ -4562,10 +5819,18 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>21</v>
       </c>
@@ -4588,10 +5853,18 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>26</v>
       </c>
@@ -4614,10 +5887,18 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>26</v>
       </c>
@@ -4640,10 +5921,18 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>26</v>
       </c>
@@ -4666,10 +5955,18 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>27</v>
       </c>
@@ -4692,10 +5989,18 @@
         <v>6.8391315252448001E-2</v>
       </c>
       <c r="H161">
+        <f t="shared" si="4"/>
+        <v>0.75164264044755202</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="5"/>
+        <v>0.88842527095244805</v>
+      </c>
+      <c r="J161">
         <v>0.13404451475012299</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>27</v>
       </c>
@@ -4718,10 +6023,18 @@
         <v>5.3291008179594299E-2</v>
       </c>
       <c r="H162">
+        <f t="shared" si="4"/>
+        <v>0.65857939369540563</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="5"/>
+        <v>0.76516141005459426</v>
+      </c>
+      <c r="J162">
         <v>0.10444845673183401</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>27</v>
       </c>
@@ -4744,10 +6057,18 @@
         <v>4.1513199762912102E-2</v>
       </c>
       <c r="H163">
+        <f t="shared" si="4"/>
+        <v>0.82754452508708787</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="5"/>
+        <v>0.91057092461291211</v>
+      </c>
+      <c r="J163">
         <v>8.1364376418324405E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -4770,10 +6091,18 @@
         <v>2.13678527463174E-2</v>
       </c>
       <c r="H164">
+        <f t="shared" si="4"/>
+        <v>0.93047197407868265</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="5"/>
+        <v>0.97320767957131737</v>
+      </c>
+      <c r="J164">
         <v>4.1880221809737397E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>27</v>
       </c>
@@ -4796,10 +6125,18 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>27</v>
       </c>
@@ -4822,10 +6159,18 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>27</v>
       </c>
@@ -4848,10 +6193,18 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>27</v>
       </c>
@@ -4874,10 +6227,18 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>27</v>
       </c>
@@ -4900,10 +6261,18 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -4926,10 +6295,18 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>22</v>
       </c>
@@ -4952,10 +6329,18 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>22</v>
       </c>
@@ -4978,10 +6363,18 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>27</v>
       </c>
@@ -5004,10 +6397,18 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>27</v>
       </c>
@@ -5030,10 +6431,18 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -5056,10 +6465,18 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>28</v>
       </c>
@@ -5082,10 +6499,18 @@
         <v>0.11596409675982899</v>
       </c>
       <c r="H176">
+        <f t="shared" si="4"/>
+        <v>0.59182149621159996</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="5"/>
+        <v>0.82374968973125795</v>
+      </c>
+      <c r="J176">
         <v>0.22728545314898299</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>28</v>
       </c>
@@ -5108,10 +6533,18 @@
         <v>7.87912134669954E-2</v>
       </c>
       <c r="H177">
+        <f t="shared" si="4"/>
+        <v>0.60406107837586165</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="5"/>
+        <v>0.76164350530985236</v>
+      </c>
+      <c r="J177">
         <v>0.15442794069351801</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>28</v>
       </c>
@@ -5134,10 +6567,18 @@
         <v>0.100230574514915</v>
       </c>
       <c r="H178">
+        <f t="shared" si="4"/>
+        <v>0.68924310973508496</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="5"/>
+        <v>0.88970425876491499</v>
+      </c>
+      <c r="J178">
         <v>0.196448316198993</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>28</v>
       </c>
@@ -5160,10 +6601,18 @@
         <v>1.7241379223214299E-2</v>
       </c>
       <c r="H179">
+        <f t="shared" si="4"/>
+        <v>0.9540229887142857</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="5"/>
+        <v>0.98850574716071438</v>
+      </c>
+      <c r="J179">
         <v>3.3792482321297099E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>28</v>
       </c>
@@ -5186,10 +6635,18 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>28</v>
       </c>
@@ -5212,10 +6669,18 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>28</v>
       </c>
@@ -5238,10 +6703,18 @@
         <v>0</v>
       </c>
       <c r="H182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>28</v>
       </c>
@@ -5264,10 +6737,18 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>28</v>
       </c>
@@ -5290,10 +6771,18 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>22</v>
       </c>
@@ -5316,10 +6805,18 @@
         <v>0</v>
       </c>
       <c r="H185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -5342,10 +6839,18 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>23</v>
       </c>
@@ -5368,10 +6873,18 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>28</v>
       </c>
@@ -5394,10 +6907,18 @@
         <v>0</v>
       </c>
       <c r="H188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>28</v>
       </c>
@@ -5420,10 +6941,18 @@
         <v>0</v>
       </c>
       <c r="H189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>28</v>
       </c>
@@ -5446,10 +6975,18 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>29</v>
       </c>
@@ -5472,10 +7009,18 @@
         <v>3.1928574385361903E-2</v>
       </c>
       <c r="H191">
+        <f t="shared" si="4"/>
+        <v>0.70058935611463813</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="5"/>
+        <v>0.76444650488536192</v>
+      </c>
+      <c r="J191">
         <v>6.2578855873017397E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>29</v>
       </c>
@@ -5498,10 +7043,18 @@
         <v>3.5171073506395499E-2</v>
       </c>
       <c r="H192">
+        <f t="shared" si="4"/>
+        <v>0.85585949360610447</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="5"/>
+        <v>0.92620164061889543</v>
+      </c>
+      <c r="J192">
         <v>6.8934037370146098E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>29</v>
       </c>
@@ -5524,10 +7077,18 @@
         <v>0</v>
       </c>
       <c r="H193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="5"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>29</v>
       </c>
@@ -5550,10 +7111,18 @@
         <v>4.5190576621577903E-3</v>
       </c>
       <c r="H194">
+        <f t="shared" si="4"/>
+        <v>0.98883614801284225</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="5"/>
+        <v>0.99787426333715779</v>
+      </c>
+      <c r="J194">
         <v>8.8571902618890409E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>29</v>
       </c>
@@ -5576,10 +7145,18 @@
         <v>8.2644627375000092E-3</v>
       </c>
       <c r="H195">
+        <f t="shared" ref="H195:H258" si="6">E195-G195</f>
+        <v>0.98347107442499992</v>
+      </c>
+      <c r="I195">
+        <f t="shared" ref="I195:I258" si="7">E195+G195</f>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J195">
         <v>1.6198049317073301E-2</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>29</v>
       </c>
@@ -5602,10 +7179,18 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>29</v>
       </c>
@@ -5628,10 +7213,18 @@
         <v>6.0327747805452104E-3</v>
       </c>
       <c r="H197">
+        <f t="shared" si="6"/>
+        <v>0.98480986814445481</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="7"/>
+        <v>0.99687541770554522</v>
+      </c>
+      <c r="J197">
         <v>1.18240212967101E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>29</v>
       </c>
@@ -5654,10 +7247,18 @@
         <v>0</v>
       </c>
       <c r="H198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>29</v>
       </c>
@@ -5680,10 +7281,18 @@
         <v>0</v>
       </c>
       <c r="H199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>24</v>
       </c>
@@ -5706,10 +7315,18 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>24</v>
       </c>
@@ -5732,10 +7349,18 @@
         <v>0</v>
       </c>
       <c r="H201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>24</v>
       </c>
@@ -5758,10 +7383,18 @@
         <v>0</v>
       </c>
       <c r="H202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>29</v>
       </c>
@@ -5784,10 +7417,18 @@
         <v>0</v>
       </c>
       <c r="H203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>29</v>
       </c>
@@ -5810,10 +7451,18 @@
         <v>0</v>
       </c>
       <c r="H204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>29</v>
       </c>
@@ -5836,10 +7485,18 @@
         <v>0</v>
       </c>
       <c r="H205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>30</v>
       </c>
@@ -5862,10 +7519,18 @@
         <v>0.11543512661706</v>
       </c>
       <c r="H206">
+        <f t="shared" si="6"/>
+        <v>0.56169640024543999</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="7"/>
+        <v>0.79256665347956001</v>
+      </c>
+      <c r="J206">
         <v>0.22624869072025799</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>30</v>
       </c>
@@ -5888,10 +7553,18 @@
         <v>1.7909144353081E-2</v>
       </c>
       <c r="H207">
+        <f t="shared" si="6"/>
+        <v>0.84696564464691904</v>
+      </c>
+      <c r="I207">
+        <f t="shared" si="7"/>
+        <v>0.88278393335308103</v>
+      </c>
+      <c r="J207">
         <v>3.5101277925967699E-2</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>30</v>
       </c>
@@ -5914,10 +7587,18 @@
         <v>2.40234823824961E-2</v>
       </c>
       <c r="H208">
+        <f t="shared" si="6"/>
+        <v>0.93103269743000394</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="7"/>
+        <v>0.97907966219499609</v>
+      </c>
+      <c r="J208">
         <v>4.7085160252924703E-2</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>30</v>
       </c>
@@ -5940,10 +7621,18 @@
         <v>1.00630999667184E-2</v>
       </c>
       <c r="H209">
+        <f t="shared" si="6"/>
+        <v>0.97463018370828158</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="7"/>
+        <v>0.99475638364171837</v>
+      </c>
+      <c r="J209">
         <v>1.9723313507594299E-2</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>30</v>
       </c>
@@ -5966,10 +7655,18 @@
         <v>0</v>
       </c>
       <c r="H210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>30</v>
       </c>
@@ -5992,10 +7689,18 @@
         <v>0</v>
       </c>
       <c r="H211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I211">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>30</v>
       </c>
@@ -6018,10 +7723,18 @@
         <v>0</v>
       </c>
       <c r="H212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I212">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>30</v>
       </c>
@@ -6044,10 +7757,18 @@
         <v>0</v>
       </c>
       <c r="H213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>30</v>
       </c>
@@ -6070,10 +7791,18 @@
         <v>0</v>
       </c>
       <c r="H214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>25</v>
       </c>
@@ -6096,10 +7825,18 @@
         <v>0</v>
       </c>
       <c r="H215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>25</v>
       </c>
@@ -6122,10 +7859,18 @@
         <v>0</v>
       </c>
       <c r="H216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>25</v>
       </c>
@@ -6148,10 +7893,18 @@
         <v>0</v>
       </c>
       <c r="H217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I217">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>30</v>
       </c>
@@ -6174,10 +7927,18 @@
         <v>0</v>
       </c>
       <c r="H218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I218">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>30</v>
       </c>
@@ -6200,10 +7961,18 @@
         <v>0</v>
       </c>
       <c r="H219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I219">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>30</v>
       </c>
@@ -6226,10 +7995,18 @@
         <v>0</v>
       </c>
       <c r="H220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I220">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>31</v>
       </c>
@@ -6252,10 +8029,18 @@
         <v>3.6435666555961303E-2</v>
       </c>
       <c r="H221">
+        <f t="shared" si="6"/>
+        <v>0.84894649504403874</v>
+      </c>
+      <c r="I221">
+        <f t="shared" si="7"/>
+        <v>0.92181782815596136</v>
+      </c>
+      <c r="J221">
         <v>7.1412594202394694E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>31</v>
       </c>
@@ -6278,10 +8063,18 @@
         <v>3.6162961249416099E-2</v>
       </c>
       <c r="H222">
+        <f t="shared" si="6"/>
+        <v>0.87884746696308391</v>
+      </c>
+      <c r="I222">
+        <f t="shared" si="7"/>
+        <v>0.9511733894619161</v>
+      </c>
+      <c r="J222">
         <v>7.0878101623173095E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>31</v>
       </c>
@@ -6304,10 +8097,18 @@
         <v>7.5893690334555E-3</v>
       </c>
       <c r="H223">
+        <f t="shared" si="6"/>
+        <v>0.97403865204154449</v>
+      </c>
+      <c r="I223">
+        <f t="shared" si="7"/>
+        <v>0.98921739010845555</v>
+      </c>
+      <c r="J223">
         <v>1.48748899709563E-2</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>31</v>
       </c>
@@ -6330,10 +8131,18 @@
         <v>3.4562920696019399E-2</v>
       </c>
       <c r="H224">
+        <f t="shared" si="6"/>
+        <v>0.89680962812898057</v>
+      </c>
+      <c r="I224">
+        <f t="shared" si="7"/>
+        <v>0.96593546952101939</v>
+      </c>
+      <c r="J224">
         <v>6.7742079764711999E-2</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>31</v>
       </c>
@@ -6356,10 +8165,18 @@
         <v>4.2787821697266998E-3</v>
       </c>
       <c r="H225">
+        <f t="shared" si="6"/>
+        <v>0.98918527000527334</v>
+      </c>
+      <c r="I225">
+        <f t="shared" si="7"/>
+        <v>0.99774283434472666</v>
+      </c>
+      <c r="J225">
         <v>8.3862589503564695E-3</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>31</v>
       </c>
@@ -6382,10 +8199,18 @@
         <v>0</v>
       </c>
       <c r="H226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I226">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>31</v>
       </c>
@@ -6408,10 +8233,18 @@
         <v>0</v>
       </c>
       <c r="H227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I227">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>31</v>
       </c>
@@ -6434,10 +8267,18 @@
         <v>0</v>
       </c>
       <c r="H228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I228">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>31</v>
       </c>
@@ -6460,10 +8301,18 @@
         <v>0</v>
       </c>
       <c r="H229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I229">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>26</v>
       </c>
@@ -6486,10 +8335,18 @@
         <v>0</v>
       </c>
       <c r="H230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I230">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>26</v>
       </c>
@@ -6512,10 +8369,18 @@
         <v>0</v>
       </c>
       <c r="H231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I231">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>26</v>
       </c>
@@ -6538,10 +8403,18 @@
         <v>0</v>
       </c>
       <c r="H232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I232">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>31</v>
       </c>
@@ -6564,10 +8437,18 @@
         <v>0</v>
       </c>
       <c r="H233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I233">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>31</v>
       </c>
@@ -6590,10 +8471,18 @@
         <v>0</v>
       </c>
       <c r="H234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I234">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>31</v>
       </c>
@@ -6616,10 +8505,18 @@
         <v>0</v>
       </c>
       <c r="H235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I235">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>32</v>
       </c>
@@ -6642,10 +8539,18 @@
         <v>0.10318753126048601</v>
       </c>
       <c r="H236">
+        <f t="shared" si="6"/>
+        <v>0.36578409987701399</v>
+      </c>
+      <c r="I236">
+        <f t="shared" si="7"/>
+        <v>0.57215916239798603</v>
+      </c>
+      <c r="J236">
         <v>0.20224384492415301</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>32</v>
       </c>
@@ -6668,10 +8573,18 @@
         <v>0.11881212474241599</v>
       </c>
       <c r="H237">
+        <f t="shared" si="6"/>
+        <v>0.48018314727008404</v>
+      </c>
+      <c r="I237">
+        <f t="shared" si="7"/>
+        <v>0.71780739675491601</v>
+      </c>
+      <c r="J237">
         <v>0.23286748542181601</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>32</v>
       </c>
@@ -6694,10 +8607,18 @@
         <v>4.1401903970746598E-2</v>
       </c>
       <c r="H238">
+        <f t="shared" si="6"/>
+        <v>0.87053663024175343</v>
+      </c>
+      <c r="I238">
+        <f t="shared" si="7"/>
+        <v>0.95334043818324665</v>
+      </c>
+      <c r="J238">
         <v>8.11462406740492E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>32</v>
       </c>
@@ -6720,10 +8641,18 @@
         <v>4.4247787375000002E-3</v>
       </c>
       <c r="H239">
+        <f t="shared" si="6"/>
+        <v>0.99115044242499994</v>
+      </c>
+      <c r="I239">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J239">
         <v>8.6724069650585996E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>32</v>
       </c>
@@ -6746,10 +8675,18 @@
         <v>0</v>
       </c>
       <c r="H240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I240">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>32</v>
       </c>
@@ -6772,10 +8709,18 @@
         <v>0</v>
       </c>
       <c r="H241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>32</v>
       </c>
@@ -6798,10 +8743,18 @@
         <v>0</v>
       </c>
       <c r="H242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>32</v>
       </c>
@@ -6824,10 +8777,18 @@
         <v>0</v>
       </c>
       <c r="H243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I243">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>32</v>
       </c>
@@ -6850,10 +8811,18 @@
         <v>0</v>
       </c>
       <c r="H244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I244">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>27</v>
       </c>
@@ -6876,10 +8845,18 @@
         <v>0</v>
       </c>
       <c r="H245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I245">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>27</v>
       </c>
@@ -6902,10 +8879,18 @@
         <v>0</v>
       </c>
       <c r="H246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I246">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>28</v>
       </c>
@@ -6928,10 +8913,18 @@
         <v>0</v>
       </c>
       <c r="H247">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I247">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>32</v>
       </c>
@@ -6954,10 +8947,18 @@
         <v>0</v>
       </c>
       <c r="H248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I248">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>32</v>
       </c>
@@ -6980,10 +8981,18 @@
         <v>0</v>
       </c>
       <c r="H249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I249">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>32</v>
       </c>
@@ -7006,10 +9015,18 @@
         <v>0</v>
       </c>
       <c r="H250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I250">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>33</v>
       </c>
@@ -7032,10 +9049,18 @@
         <v>3.62674316978112E-2</v>
       </c>
       <c r="H251">
+        <f t="shared" si="6"/>
+        <v>0.9007455552521888</v>
+      </c>
+      <c r="I251">
+        <f t="shared" si="7"/>
+        <v>0.97328041864781123</v>
+      </c>
+      <c r="J251">
         <v>7.1082859939476301E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>33</v>
       </c>
@@ -7058,10 +9083,18 @@
         <v>1.33053233669035E-2</v>
       </c>
       <c r="H252">
+        <f t="shared" si="6"/>
+        <v>0.95471415708309648</v>
+      </c>
+      <c r="I252">
+        <f t="shared" si="7"/>
+        <v>0.98132480381690346</v>
+      </c>
+      <c r="J252">
         <v>2.6077954601790101E-2</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>33</v>
       </c>
@@ -7084,10 +9117,18 @@
         <v>1.24999999875E-2</v>
       </c>
       <c r="H253">
+        <f t="shared" si="6"/>
+        <v>0.97499999992500008</v>
+      </c>
+      <c r="I253">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J253">
         <v>2.44995497822511E-2</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>33</v>
       </c>
@@ -7110,10 +9151,18 @@
         <v>1.8181818112500001E-2</v>
       </c>
       <c r="H254">
+        <f t="shared" si="6"/>
+        <v>0.96363636367500005</v>
+      </c>
+      <c r="I254">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J254">
         <v>3.5635708673958003E-2</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>33</v>
       </c>
@@ -7136,10 +9185,18 @@
         <v>0</v>
       </c>
       <c r="H255">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I255">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>33</v>
       </c>
@@ -7162,10 +9219,18 @@
         <v>0</v>
       </c>
       <c r="H256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I256">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>33</v>
       </c>
@@ -7188,10 +9253,18 @@
         <v>0</v>
       </c>
       <c r="H257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I257">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>33</v>
       </c>
@@ -7214,10 +9287,18 @@
         <v>0</v>
       </c>
       <c r="H258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="6"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I258">
+        <f t="shared" si="7"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>33</v>
       </c>
@@ -7240,10 +9321,18 @@
         <v>0</v>
       </c>
       <c r="H259">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H259:H322" si="8">E259-G259</f>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I259">
+        <f t="shared" ref="I259:I322" si="9">E259+G259</f>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>28</v>
       </c>
@@ -7266,10 +9355,18 @@
         <v>0</v>
       </c>
       <c r="H260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I260">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>29</v>
       </c>
@@ -7292,10 +9389,18 @@
         <v>0</v>
       </c>
       <c r="H261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I261">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>29</v>
       </c>
@@ -7318,10 +9423,18 @@
         <v>0</v>
       </c>
       <c r="H262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I262">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>33</v>
       </c>
@@ -7344,10 +9457,18 @@
         <v>0</v>
       </c>
       <c r="H263">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I263">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>33</v>
       </c>
@@ -7370,10 +9491,18 @@
         <v>0</v>
       </c>
       <c r="H264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I264">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>33</v>
       </c>
@@ -7396,10 +9525,18 @@
         <v>0</v>
       </c>
       <c r="H265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I265">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>34</v>
       </c>
@@ -7422,10 +9559,18 @@
         <v>2.1759706968350601E-2</v>
       </c>
       <c r="H266">
+        <f t="shared" si="8"/>
+        <v>0.94414938398164938</v>
+      </c>
+      <c r="I266">
+        <f t="shared" si="9"/>
+        <v>0.9876687979183506</v>
+      </c>
+      <c r="J266">
         <v>4.2648241972112401E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>34</v>
       </c>
@@ -7448,10 +9593,18 @@
         <v>1.31215968669535E-2</v>
       </c>
       <c r="H267">
+        <f t="shared" si="8"/>
+        <v>0.96415113058304658</v>
+      </c>
+      <c r="I267">
+        <f t="shared" si="9"/>
+        <v>0.99039432431695351</v>
+      </c>
+      <c r="J267">
         <v>2.57178572788824E-2</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>34</v>
       </c>
@@ -7474,10 +9627,18 @@
         <v>0</v>
       </c>
       <c r="H268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I268">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>34</v>
       </c>
@@ -7500,10 +9661,18 @@
         <v>1.7249320647935499E-2</v>
       </c>
       <c r="H269">
+        <f t="shared" si="8"/>
+        <v>0.95816051540206448</v>
+      </c>
+      <c r="I269">
+        <f t="shared" si="9"/>
+        <v>0.99265915669793547</v>
+      </c>
+      <c r="J269">
         <v>3.3808047227736802E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>34</v>
       </c>
@@ -7526,10 +9695,18 @@
         <v>0</v>
       </c>
       <c r="H270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I270">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>34</v>
       </c>
@@ -7552,10 +9729,18 @@
         <v>0</v>
       </c>
       <c r="H271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I271">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>34</v>
       </c>
@@ -7578,10 +9763,18 @@
         <v>0</v>
       </c>
       <c r="H272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I272">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>34</v>
       </c>
@@ -7604,10 +9797,18 @@
         <v>0</v>
       </c>
       <c r="H273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I273">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>34</v>
       </c>
@@ -7630,10 +9831,18 @@
         <v>0</v>
       </c>
       <c r="H274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I274">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>29</v>
       </c>
@@ -7656,10 +9865,18 @@
         <v>0</v>
       </c>
       <c r="H275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I275">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>30</v>
       </c>
@@ -7682,10 +9899,18 @@
         <v>0</v>
       </c>
       <c r="H276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I276">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>30</v>
       </c>
@@ -7708,10 +9933,18 @@
         <v>0</v>
       </c>
       <c r="H277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I277">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>34</v>
       </c>
@@ -7734,10 +9967,18 @@
         <v>0</v>
       </c>
       <c r="H278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I278">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>34</v>
       </c>
@@ -7760,10 +10001,18 @@
         <v>0</v>
       </c>
       <c r="H279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I279">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>34</v>
       </c>
@@ -7786,10 +10035,18 @@
         <v>0</v>
       </c>
       <c r="H280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I280">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>35</v>
       </c>
@@ -7812,10 +10069,18 @@
         <v>0.137741951945626</v>
       </c>
       <c r="H281">
+        <f t="shared" si="8"/>
+        <v>0.38953077529187397</v>
+      </c>
+      <c r="I281">
+        <f t="shared" si="9"/>
+        <v>0.66501467918312596</v>
+      </c>
+      <c r="J281">
         <v>0.26996926497367302</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>35</v>
       </c>
@@ -7838,10 +10103,18 @@
         <v>0.14969469122337101</v>
       </c>
       <c r="H282">
+        <f t="shared" si="8"/>
+        <v>0.50485076327662903</v>
+      </c>
+      <c r="I282">
+        <f t="shared" si="9"/>
+        <v>0.80424014572337099</v>
+      </c>
+      <c r="J282">
         <v>0.29339620347465201</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>35</v>
       </c>
@@ -7864,10 +10137,18 @@
         <v>0.12132435277702899</v>
       </c>
       <c r="H283">
+        <f t="shared" si="8"/>
+        <v>0.61958473807297099</v>
+      </c>
+      <c r="I283">
+        <f t="shared" si="9"/>
+        <v>0.86223344362702903</v>
+      </c>
+      <c r="J283">
         <v>0.23779136189060901</v>
       </c>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>35</v>
       </c>
@@ -7890,10 +10171,18 @@
         <v>9.2049809772594998E-2</v>
       </c>
       <c r="H284">
+        <f t="shared" si="8"/>
+        <v>0.739920318177405</v>
+      </c>
+      <c r="I284">
+        <f t="shared" si="9"/>
+        <v>0.92401993772259505</v>
+      </c>
+      <c r="J284">
         <v>0.18041431193804899</v>
       </c>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>35</v>
       </c>
@@ -7916,10 +10205,18 @@
         <v>0</v>
       </c>
       <c r="H285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I285">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>35</v>
       </c>
@@ -7942,10 +10239,18 @@
         <v>0</v>
       </c>
       <c r="H286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I286">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>35</v>
       </c>
@@ -7968,10 +10273,18 @@
         <v>0</v>
       </c>
       <c r="H287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I287">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>35</v>
       </c>
@@ -7994,10 +10307,18 @@
         <v>0</v>
       </c>
       <c r="H288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I288">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>35</v>
       </c>
@@ -8020,10 +10341,18 @@
         <v>0</v>
       </c>
       <c r="H289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I289">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>31</v>
       </c>
@@ -8046,10 +10375,18 @@
         <v>0</v>
       </c>
       <c r="H290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I290">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>31</v>
       </c>
@@ -8072,10 +10409,18 @@
         <v>0</v>
       </c>
       <c r="H291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I291">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>32</v>
       </c>
@@ -8098,10 +10443,18 @@
         <v>0</v>
       </c>
       <c r="H292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I292">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>35</v>
       </c>
@@ -8124,10 +10477,18 @@
         <v>0</v>
       </c>
       <c r="H293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I293">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>35</v>
       </c>
@@ -8150,10 +10511,18 @@
         <v>0</v>
       </c>
       <c r="H294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I294">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J294">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>35</v>
       </c>
@@ -8176,10 +10545,18 @@
         <v>0</v>
       </c>
       <c r="H295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I295">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>36</v>
       </c>
@@ -8202,10 +10579,18 @@
         <v>4.3722933780339E-2</v>
       </c>
       <c r="H296">
+        <f t="shared" si="8"/>
+        <v>0.69230760059466101</v>
+      </c>
+      <c r="I296">
+        <f t="shared" si="9"/>
+        <v>0.77975346815533897</v>
+      </c>
+      <c r="J296">
         <v>8.5695375507894106E-2</v>
       </c>
     </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>36</v>
       </c>
@@ -8228,10 +10613,18 @@
         <v>5.2393337777351202E-2</v>
       </c>
       <c r="H297">
+        <f t="shared" si="8"/>
+        <v>0.79691963933514876</v>
+      </c>
+      <c r="I297">
+        <f t="shared" si="9"/>
+        <v>0.9017063148898512</v>
+      </c>
+      <c r="J297">
         <v>0.10268905507345</v>
       </c>
     </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>36</v>
       </c>
@@ -8254,10 +10647,18 @@
         <v>6.55844944257509E-2</v>
       </c>
       <c r="H298">
+        <f t="shared" si="8"/>
+        <v>0.78963179067424916</v>
+      </c>
+      <c r="I298">
+        <f t="shared" si="9"/>
+        <v>0.9208007795257509</v>
+      </c>
+      <c r="J298">
         <v>0.12854324701874001</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>36</v>
       </c>
@@ -8280,10 +10681,18 @@
         <v>3.9999999874999999E-3</v>
       </c>
       <c r="H299">
+        <f t="shared" si="8"/>
+        <v>0.99199999992499999</v>
+      </c>
+      <c r="I299">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J299">
         <v>7.8398559136606694E-3</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>36</v>
       </c>
@@ -8306,10 +10715,18 @@
         <v>0</v>
       </c>
       <c r="H300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I300">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J300">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>36</v>
       </c>
@@ -8332,10 +10749,18 @@
         <v>0</v>
       </c>
       <c r="H301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I301">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>36</v>
       </c>
@@ -8358,10 +10783,18 @@
         <v>0</v>
       </c>
       <c r="H302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I302">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>36</v>
       </c>
@@ -8384,10 +10817,18 @@
         <v>0</v>
       </c>
       <c r="H303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I303">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>36</v>
       </c>
@@ -8410,10 +10851,18 @@
         <v>0</v>
       </c>
       <c r="H304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I304">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>33</v>
       </c>
@@ -8436,10 +10885,18 @@
         <v>0</v>
       </c>
       <c r="H305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I305">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>33</v>
       </c>
@@ -8462,10 +10919,18 @@
         <v>0</v>
       </c>
       <c r="H306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I306">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>34</v>
       </c>
@@ -8488,10 +10953,18 @@
         <v>0</v>
       </c>
       <c r="H307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I307">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>36</v>
       </c>
@@ -8514,10 +10987,18 @@
         <v>0</v>
       </c>
       <c r="H308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I308">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>36</v>
       </c>
@@ -8540,10 +11021,18 @@
         <v>0</v>
       </c>
       <c r="H309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I309">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J309">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>36</v>
       </c>
@@ -8566,10 +11055,18 @@
         <v>0</v>
       </c>
       <c r="H310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I310">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J310">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>37</v>
       </c>
@@ -8592,10 +11089,18 @@
         <v>3.9044280227601001E-2</v>
       </c>
       <c r="H311">
+        <f t="shared" si="8"/>
+        <v>0.78054534427239897</v>
+      </c>
+      <c r="I311">
+        <f t="shared" si="9"/>
+        <v>0.85863390472760093</v>
+      </c>
+      <c r="J311">
         <v>7.6525383048387297E-2</v>
       </c>
     </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>37</v>
       </c>
@@ -8618,10 +11123,18 @@
         <v>1.22391014054709E-2</v>
       </c>
       <c r="H312">
+        <f t="shared" si="8"/>
+        <v>0.93946434431952908</v>
+      </c>
+      <c r="I312">
+        <f t="shared" si="9"/>
+        <v>0.96394254713047089</v>
+      </c>
+      <c r="J312">
         <v>2.3988197957856498E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>37</v>
       </c>
@@ -8644,10 +11157,18 @@
         <v>1.5873015803571401E-2</v>
       </c>
       <c r="H313">
+        <f t="shared" si="8"/>
+        <v>0.95238095250892862</v>
+      </c>
+      <c r="I313">
+        <f t="shared" si="9"/>
+        <v>0.98412698411607136</v>
+      </c>
+      <c r="J313">
         <v>3.1110539301035099E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>37</v>
       </c>
@@ -8670,10 +11191,18 @@
         <v>1.2514940106746499E-2</v>
       </c>
       <c r="H314">
+        <f t="shared" si="8"/>
+        <v>0.94878516548075353</v>
+      </c>
+      <c r="I314">
+        <f t="shared" si="9"/>
+        <v>0.97381504569424648</v>
+      </c>
+      <c r="J314">
         <v>2.4528831877899001E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>37</v>
       </c>
@@ -8696,10 +11225,18 @@
         <v>0</v>
       </c>
       <c r="H315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I315">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>37</v>
       </c>
@@ -8722,10 +11259,18 @@
         <v>0</v>
       </c>
       <c r="H316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I316">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>37</v>
       </c>
@@ -8748,10 +11293,18 @@
         <v>0</v>
       </c>
       <c r="H317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I317">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>37</v>
       </c>
@@ -8774,10 +11327,18 @@
         <v>0</v>
       </c>
       <c r="H318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I318">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>37</v>
       </c>
@@ -8800,10 +11361,18 @@
         <v>0</v>
       </c>
       <c r="H319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I319">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>34</v>
       </c>
@@ -8826,10 +11395,18 @@
         <v>0</v>
       </c>
       <c r="H320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I320">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>34</v>
       </c>
@@ -8852,10 +11429,18 @@
         <v>0</v>
       </c>
       <c r="H321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I321">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>35</v>
       </c>
@@ -8878,10 +11463,18 @@
         <v>0</v>
       </c>
       <c r="H322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I322">
+        <f t="shared" si="9"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>37</v>
       </c>
@@ -8904,10 +11497,18 @@
         <v>0</v>
       </c>
       <c r="H323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H323:H386" si="10">E323-G323</f>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I323">
+        <f t="shared" ref="I323:I386" si="11">E323+G323</f>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>37</v>
       </c>
@@ -8930,10 +11531,18 @@
         <v>0</v>
       </c>
       <c r="H324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I324">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>37</v>
       </c>
@@ -8956,10 +11565,18 @@
         <v>0</v>
       </c>
       <c r="H325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I325">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>38</v>
       </c>
@@ -8982,10 +11599,18 @@
         <v>8.4085229573543294E-2</v>
       </c>
       <c r="H326">
+        <f t="shared" si="10"/>
+        <v>0.45477244830145674</v>
+      </c>
+      <c r="I326">
+        <f t="shared" si="11"/>
+        <v>0.6229429074485433</v>
+      </c>
+      <c r="J326">
         <v>0.164804021595927</v>
       </c>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>38</v>
       </c>
@@ -9008,10 +11633,18 @@
         <v>0.11109733334947899</v>
       </c>
       <c r="H327">
+        <f t="shared" si="10"/>
+        <v>0.36393387753802098</v>
+      </c>
+      <c r="I327">
+        <f t="shared" si="11"/>
+        <v>0.58612854423697902</v>
+      </c>
+      <c r="J327">
         <v>0.21774677214342</v>
       </c>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>38</v>
       </c>
@@ -9034,10 +11667,18 @@
         <v>6.8052629652124594E-2</v>
       </c>
       <c r="H328">
+        <f t="shared" si="10"/>
+        <v>0.71409468621037542</v>
+      </c>
+      <c r="I328">
+        <f t="shared" si="11"/>
+        <v>0.85019994551462452</v>
+      </c>
+      <c r="J328">
         <v>0.13338070317140699</v>
       </c>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>38</v>
       </c>
@@ -9060,10 +11701,18 @@
         <v>8.2743355420853495E-2</v>
       </c>
       <c r="H329">
+        <f t="shared" si="10"/>
+        <v>0.74133071865414646</v>
+      </c>
+      <c r="I329">
+        <f t="shared" si="11"/>
+        <v>0.90681742949585353</v>
+      </c>
+      <c r="J329">
         <v>0.16217399658487</v>
       </c>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>38</v>
       </c>
@@ -9086,10 +11735,18 @@
         <v>2.7997368328882801E-2</v>
       </c>
       <c r="H330">
+        <f t="shared" si="10"/>
+        <v>0.93496559459611728</v>
+      </c>
+      <c r="I330">
+        <f t="shared" si="11"/>
+        <v>0.99096033125388283</v>
+      </c>
+      <c r="J330">
         <v>5.4873833586512703E-2</v>
       </c>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>38</v>
       </c>
@@ -9112,10 +11769,18 @@
         <v>0</v>
       </c>
       <c r="H331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I331">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>38</v>
       </c>
@@ -9138,10 +11803,18 @@
         <v>3.7037036987500001E-2</v>
       </c>
       <c r="H332">
+        <f t="shared" si="10"/>
+        <v>0.925925925925</v>
+      </c>
+      <c r="I332">
+        <f t="shared" si="11"/>
+        <v>0.9999999999000001</v>
+      </c>
+      <c r="J332">
         <v>7.2591258589577795E-2</v>
       </c>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>38</v>
       </c>
@@ -9164,10 +11837,18 @@
         <v>0</v>
       </c>
       <c r="H333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I333">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>38</v>
       </c>
@@ -9190,10 +11871,18 @@
         <v>0</v>
       </c>
       <c r="H334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I334">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>35</v>
       </c>
@@ -9216,10 +11905,18 @@
         <v>0</v>
       </c>
       <c r="H335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I335">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>35</v>
       </c>
@@ -9242,10 +11939,18 @@
         <v>0</v>
       </c>
       <c r="H336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I336">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J336">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>36</v>
       </c>
@@ -9268,10 +11973,18 @@
         <v>0</v>
       </c>
       <c r="H337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I337">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>38</v>
       </c>
@@ -9294,10 +12007,18 @@
         <v>0.11458416842220399</v>
       </c>
       <c r="H338">
+        <f t="shared" si="10"/>
+        <v>0.66319360927779603</v>
+      </c>
+      <c r="I338">
+        <f t="shared" si="11"/>
+        <v>0.89236194612220399</v>
+      </c>
+      <c r="J338">
         <v>0.22458084330599201</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>38</v>
       </c>
@@ -9320,10 +12041,18 @@
         <v>9.2592592374999994E-3</v>
       </c>
       <c r="H339">
+        <f t="shared" si="10"/>
+        <v>0.98148148142499991</v>
+      </c>
+      <c r="I339">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J339">
         <v>1.81478146290198E-2</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>38</v>
       </c>
@@ -9346,10 +12075,18 @@
         <v>0</v>
       </c>
       <c r="H340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I340">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>39</v>
       </c>
@@ -9372,10 +12109,18 @@
         <v>6.9918132312164205E-2</v>
       </c>
       <c r="H341">
+        <f t="shared" si="10"/>
+        <v>0.56735576956283573</v>
+      </c>
+      <c r="I341">
+        <f t="shared" si="11"/>
+        <v>0.70719203418716425</v>
+      </c>
+      <c r="J341">
         <v>0.13703702119814801</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>39</v>
       </c>
@@ -9398,10 +12143,18 @@
         <v>3.0948628880244699E-2</v>
       </c>
       <c r="H342">
+        <f t="shared" si="10"/>
+        <v>0.74316851149475527</v>
+      </c>
+      <c r="I342">
+        <f t="shared" si="11"/>
+        <v>0.80506576925524476</v>
+      </c>
+      <c r="J342">
         <v>6.0658197976175901E-2</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>39</v>
       </c>
@@ -9424,10 +12177,18 @@
         <v>3.64478568273717E-2</v>
       </c>
       <c r="H343">
+        <f t="shared" si="10"/>
+        <v>0.8891550716226283</v>
+      </c>
+      <c r="I343">
+        <f t="shared" si="11"/>
+        <v>0.96205078527737176</v>
+      </c>
+      <c r="J343">
         <v>7.1436486695320794E-2</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>39</v>
       </c>
@@ -9450,10 +12211,18 @@
         <v>0</v>
       </c>
       <c r="H344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I344">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J344">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>39</v>
       </c>
@@ -9476,10 +12245,18 @@
         <v>0</v>
       </c>
       <c r="H345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I345">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J345">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>39</v>
       </c>
@@ -9502,10 +12279,18 @@
         <v>0</v>
       </c>
       <c r="H346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I346">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J346">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>39</v>
       </c>
@@ -9528,10 +12313,18 @@
         <v>0</v>
       </c>
       <c r="H347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I347">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>39</v>
       </c>
@@ -9554,10 +12347,18 @@
         <v>0</v>
       </c>
       <c r="H348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I348">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>39</v>
       </c>
@@ -9580,10 +12381,18 @@
         <v>0</v>
       </c>
       <c r="H349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I349">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>36</v>
       </c>
@@ -9606,10 +12415,18 @@
         <v>0</v>
       </c>
       <c r="H350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I350">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>37</v>
       </c>
@@ -9632,10 +12449,18 @@
         <v>0</v>
       </c>
       <c r="H351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I351">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>37</v>
       </c>
@@ -9658,10 +12483,18 @@
         <v>0</v>
       </c>
       <c r="H352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I352">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>39</v>
       </c>
@@ -9684,10 +12517,18 @@
         <v>0</v>
       </c>
       <c r="H353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I353">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>39</v>
       </c>
@@ -9710,10 +12551,18 @@
         <v>0</v>
       </c>
       <c r="H354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I354">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>39</v>
       </c>
@@ -9736,10 +12585,18 @@
         <v>0</v>
       </c>
       <c r="H355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I355">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>40</v>
       </c>
@@ -9762,10 +12619,18 @@
         <v>0.106224238802237</v>
       </c>
       <c r="H356">
+        <f t="shared" si="10"/>
+        <v>0.40382040408526299</v>
+      </c>
+      <c r="I356">
+        <f t="shared" si="11"/>
+        <v>0.61626888168973692</v>
+      </c>
+      <c r="J356">
         <v>0.20819568233756799</v>
       </c>
     </row>
-    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>40</v>
       </c>
@@ -9788,10 +12653,18 @@
         <v>2.0966150553373902E-2</v>
       </c>
       <c r="H357">
+        <f t="shared" si="10"/>
+        <v>0.81910081369662613</v>
+      </c>
+      <c r="I357">
+        <f t="shared" si="11"/>
+        <v>0.86103311480337397</v>
+      </c>
+      <c r="J357">
         <v>4.10928999790574E-2</v>
       </c>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>40</v>
       </c>
@@ -9814,10 +12687,18 @@
         <v>2.4731498162175E-2</v>
       </c>
       <c r="H358">
+        <f t="shared" si="10"/>
+        <v>0.89848278755032496</v>
+      </c>
+      <c r="I358">
+        <f t="shared" si="11"/>
+        <v>0.94794578387467499</v>
+      </c>
+      <c r="J358">
         <v>4.8472845681581403E-2</v>
       </c>
     </row>
-    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>40</v>
       </c>
@@ -9840,10 +12721,18 @@
         <v>4.5813875540035902E-2</v>
       </c>
       <c r="H359">
+        <f t="shared" si="10"/>
+        <v>0.89358006375996413</v>
+      </c>
+      <c r="I359">
+        <f t="shared" si="11"/>
+        <v>0.98520781484003594</v>
+      </c>
+      <c r="J359">
         <v>8.97935460506709E-2</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>40</v>
       </c>
@@ -9866,10 +12755,18 @@
         <v>0</v>
       </c>
       <c r="H360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I360">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>40</v>
       </c>
@@ -9892,10 +12789,18 @@
         <v>0</v>
       </c>
       <c r="H361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I361">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>40</v>
       </c>
@@ -9918,10 +12823,18 @@
         <v>0</v>
       </c>
       <c r="H362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I362">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>40</v>
       </c>
@@ -9944,10 +12857,18 @@
         <v>0</v>
       </c>
       <c r="H363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I363">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>40</v>
       </c>
@@ -9970,10 +12891,18 @@
         <v>0</v>
       </c>
       <c r="H364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I364">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>37</v>
       </c>
@@ -9996,10 +12925,18 @@
         <v>0</v>
       </c>
       <c r="H365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I365">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>38</v>
       </c>
@@ -10022,10 +12959,18 @@
         <v>0</v>
       </c>
       <c r="H366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I366">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J366">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>38</v>
       </c>
@@ -10048,10 +12993,18 @@
         <v>0</v>
       </c>
       <c r="H367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I367">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>40</v>
       </c>
@@ -10074,10 +13027,18 @@
         <v>0</v>
       </c>
       <c r="H368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I368">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J368">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>40</v>
       </c>
@@ -10100,10 +13061,18 @@
         <v>0</v>
       </c>
       <c r="H369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I369">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>40</v>
       </c>
@@ -10126,10 +13095,18 @@
         <v>0</v>
       </c>
       <c r="H370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I370">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>41</v>
       </c>
@@ -10152,10 +13129,18 @@
         <v>4.5036978702031799E-2</v>
       </c>
       <c r="H371">
+        <f t="shared" si="10"/>
+        <v>0.8119785546479682</v>
+      </c>
+      <c r="I371">
+        <f t="shared" si="11"/>
+        <v>0.90205251205203185</v>
+      </c>
+      <c r="J371">
         <v>8.8270856228479702E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>41</v>
       </c>
@@ -10178,10 +13163,18 @@
         <v>9.1209374107234606E-2</v>
       </c>
       <c r="H372">
+        <f t="shared" si="10"/>
+        <v>0.71226656173026537</v>
+      </c>
+      <c r="I372">
+        <f t="shared" si="11"/>
+        <v>0.89468530994473461</v>
+      </c>
+      <c r="J372">
         <v>0.17876708830262</v>
       </c>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>41</v>
       </c>
@@ -10204,10 +13197,18 @@
         <v>3.8022080790051899E-2</v>
       </c>
       <c r="H373">
+        <f t="shared" si="10"/>
+        <v>0.91002986714744816</v>
+      </c>
+      <c r="I373">
+        <f t="shared" si="11"/>
+        <v>0.9860740287275519</v>
+      </c>
+      <c r="J373">
         <v>7.4521908965773903E-2</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>41</v>
       </c>
@@ -10230,10 +13231,18 @@
         <v>0</v>
       </c>
       <c r="H374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I374">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>41</v>
       </c>
@@ -10256,10 +13265,18 @@
         <v>0</v>
       </c>
       <c r="H375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I375">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J375">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>41</v>
       </c>
@@ -10282,10 +13299,18 @@
         <v>0</v>
       </c>
       <c r="H376">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I376">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J376">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>41</v>
       </c>
@@ -10308,10 +13333,18 @@
         <v>0</v>
       </c>
       <c r="H377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I377">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>41</v>
       </c>
@@ -10334,10 +13367,18 @@
         <v>0</v>
       </c>
       <c r="H378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I378">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J378">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>41</v>
       </c>
@@ -10360,10 +13401,18 @@
         <v>0</v>
       </c>
       <c r="H379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I379">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>39</v>
       </c>
@@ -10386,10 +13435,18 @@
         <v>0</v>
       </c>
       <c r="H380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I380">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J380">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>39</v>
       </c>
@@ -10412,10 +13469,18 @@
         <v>0</v>
       </c>
       <c r="H381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I381">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J381">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>39</v>
       </c>
@@ -10438,10 +13503,18 @@
         <v>0</v>
       </c>
       <c r="H382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I382">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>41</v>
       </c>
@@ -10464,10 +13537,18 @@
         <v>0</v>
       </c>
       <c r="H383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I383">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>41</v>
       </c>
@@ -10490,10 +13571,18 @@
         <v>0</v>
       </c>
       <c r="H384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I384">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J384">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>41</v>
       </c>
@@ -10516,10 +13605,18 @@
         <v>0</v>
       </c>
       <c r="H385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="10"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I385">
+        <f t="shared" si="11"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>42</v>
       </c>
@@ -10542,10 +13639,18 @@
         <v>3.9200605791072499E-2</v>
       </c>
       <c r="H386">
+        <f t="shared" si="10"/>
+        <v>0.83256514208392751</v>
+      </c>
+      <c r="I386">
+        <f t="shared" si="11"/>
+        <v>0.91096635366607259</v>
+      </c>
+      <c r="J386">
         <v>7.6831775522654397E-2</v>
       </c>
     </row>
-    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>42</v>
       </c>
@@ -10568,10 +13673,18 @@
         <v>2.1718560930435001E-2</v>
       </c>
       <c r="H387">
+        <f t="shared" ref="H387:H445" si="12">E387-G387</f>
+        <v>0.915213519794565</v>
+      </c>
+      <c r="I387">
+        <f t="shared" ref="I387:I445" si="13">E387+G387</f>
+        <v>0.95865064165543501</v>
+      </c>
+      <c r="J387">
         <v>4.2567597219691403E-2</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>42</v>
       </c>
@@ -10594,10 +13707,18 @@
         <v>2.7069914470631201E-2</v>
       </c>
       <c r="H388">
+        <f t="shared" si="12"/>
+        <v>0.93513938770436877</v>
+      </c>
+      <c r="I388">
+        <f t="shared" si="13"/>
+        <v>0.98927921664563123</v>
+      </c>
+      <c r="J388">
         <v>5.3056057427016801E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>42</v>
       </c>
@@ -10620,10 +13741,18 @@
         <v>1.5664026295182001E-2</v>
       </c>
       <c r="H389">
+        <f t="shared" si="12"/>
+        <v>0.96134746787981795</v>
+      </c>
+      <c r="I389">
+        <f t="shared" si="13"/>
+        <v>0.99267552047018204</v>
+      </c>
+      <c r="J389">
         <v>3.0700927391445199E-2</v>
       </c>
     </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>42</v>
       </c>
@@ -10646,10 +13775,18 @@
         <v>1.7857142862500001E-2</v>
       </c>
       <c r="H390">
+        <f t="shared" si="12"/>
+        <v>0.96428571417500009</v>
+      </c>
+      <c r="I390">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J390">
         <v>3.4999356877286503E-2</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>42</v>
       </c>
@@ -10672,10 +13809,18 @@
         <v>0</v>
       </c>
       <c r="H391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I391">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>42</v>
       </c>
@@ -10698,10 +13843,18 @@
         <v>0</v>
       </c>
       <c r="H392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I392">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>42</v>
       </c>
@@ -10724,10 +13877,18 @@
         <v>0</v>
       </c>
       <c r="H393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I393">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J393">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>42</v>
       </c>
@@ -10750,10 +13911,18 @@
         <v>0</v>
       </c>
       <c r="H394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I394">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>40</v>
       </c>
@@ -10776,10 +13945,18 @@
         <v>0</v>
       </c>
       <c r="H395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I395">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>40</v>
       </c>
@@ -10802,10 +13979,18 @@
         <v>0</v>
       </c>
       <c r="H396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I396">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>41</v>
       </c>
@@ -10828,10 +14013,18 @@
         <v>0</v>
       </c>
       <c r="H397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I397">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>42</v>
       </c>
@@ -10854,10 +14047,18 @@
         <v>5.9523809875000003E-3</v>
       </c>
       <c r="H398">
+        <f t="shared" si="12"/>
+        <v>0.98809523792500009</v>
+      </c>
+      <c r="I398">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J398">
         <v>1.1666452357761E-2</v>
       </c>
     </row>
-    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>42</v>
       </c>
@@ -10880,10 +14081,18 @@
         <v>0</v>
       </c>
       <c r="H399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I399">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>42</v>
       </c>
@@ -10906,10 +14115,18 @@
         <v>0</v>
       </c>
       <c r="H400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I400">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>43</v>
       </c>
@@ -10932,10 +14149,18 @@
         <v>8.4094094044182693E-2</v>
       </c>
       <c r="H401">
+        <f t="shared" si="12"/>
+        <v>0.5477085485808173</v>
+      </c>
+      <c r="I401">
+        <f t="shared" si="13"/>
+        <v>0.71589673666918263</v>
+      </c>
+      <c r="J401">
         <v>0.16482139563912199</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>43</v>
       </c>
@@ -10958,10 +14183,18 @@
         <v>5.7663116161975503E-2</v>
       </c>
       <c r="H402">
+        <f t="shared" si="12"/>
+        <v>0.82139075056302446</v>
+      </c>
+      <c r="I402">
+        <f t="shared" si="13"/>
+        <v>0.93671698288697547</v>
+      </c>
+      <c r="J402">
         <v>0.113017630913821</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>43</v>
       </c>
@@ -10984,10 +14217,18 @@
         <v>4.6584717081932001E-2</v>
       </c>
       <c r="H403">
+        <f t="shared" si="12"/>
+        <v>0.80666761590556801</v>
+      </c>
+      <c r="I403">
+        <f t="shared" si="13"/>
+        <v>0.89983705006943204</v>
+      </c>
+      <c r="J403">
         <v>9.1304367710574597E-2</v>
       </c>
     </row>
-    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>43</v>
       </c>
@@ -11010,10 +14251,18 @@
         <v>0</v>
       </c>
       <c r="H404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I404">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>43</v>
       </c>
@@ -11036,10 +14285,18 @@
         <v>0</v>
       </c>
       <c r="H405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I405">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>43</v>
       </c>
@@ -11062,10 +14319,18 @@
         <v>0</v>
       </c>
       <c r="H406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I406">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>43</v>
       </c>
@@ -11088,10 +14353,18 @@
         <v>0</v>
       </c>
       <c r="H407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I407">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J407">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>43</v>
       </c>
@@ -11114,10 +14387,18 @@
         <v>0</v>
       </c>
       <c r="H408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I408">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J408">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>43</v>
       </c>
@@ -11140,10 +14421,18 @@
         <v>0</v>
       </c>
       <c r="H409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I409">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J409">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>41</v>
       </c>
@@ -11166,10 +14455,18 @@
         <v>0</v>
       </c>
       <c r="H410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I410">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J410">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>42</v>
       </c>
@@ -11192,10 +14489,18 @@
         <v>0</v>
       </c>
       <c r="H411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I411">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J411">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>42</v>
       </c>
@@ -11218,10 +14523,18 @@
         <v>0</v>
       </c>
       <c r="H412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I412">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J412">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>43</v>
       </c>
@@ -11244,10 +14557,18 @@
         <v>0</v>
       </c>
       <c r="H413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I413">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J413">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>43</v>
       </c>
@@ -11270,10 +14591,18 @@
         <v>0</v>
       </c>
       <c r="H414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I414">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J414">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>43</v>
       </c>
@@ -11296,10 +14625,18 @@
         <v>0</v>
       </c>
       <c r="H415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I415">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J415">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>44</v>
       </c>
@@ -11322,10 +14659,18 @@
         <v>2.8106533079832401E-2</v>
       </c>
       <c r="H416">
+        <f t="shared" si="12"/>
+        <v>0.8264907112826676</v>
+      </c>
+      <c r="I416">
+        <f t="shared" si="13"/>
+        <v>0.8827037774423323</v>
+      </c>
+      <c r="J416">
         <v>5.5087792566755202E-2</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>44</v>
       </c>
@@ -11348,10 +14693,18 @@
         <v>6.4257246418021399E-2</v>
       </c>
       <c r="H417">
+        <f t="shared" si="12"/>
+        <v>0.8350538295444786</v>
+      </c>
+      <c r="I417">
+        <f t="shared" si="13"/>
+        <v>0.96356832238052148</v>
+      </c>
+      <c r="J417">
         <v>0.125941888725037</v>
       </c>
     </row>
-    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>44</v>
       </c>
@@ -11374,10 +14727,18 @@
         <v>1.35405772831436E-2</v>
       </c>
       <c r="H418">
+        <f t="shared" si="12"/>
+        <v>0.91836191359185637</v>
+      </c>
+      <c r="I418">
+        <f t="shared" si="13"/>
+        <v>0.94544306815814361</v>
+      </c>
+      <c r="J418">
         <v>2.6539043804842701E-2</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>44</v>
       </c>
@@ -11400,10 +14761,18 @@
         <v>3.6496349874999999E-3</v>
       </c>
       <c r="H419">
+        <f t="shared" si="12"/>
+        <v>0.99270072992499991</v>
+      </c>
+      <c r="I419">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J419">
         <v>7.1531531322172803E-3</v>
       </c>
     </row>
-    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>44</v>
       </c>
@@ -11426,10 +14795,18 @@
         <v>0</v>
       </c>
       <c r="H420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I420">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J420">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>44</v>
       </c>
@@ -11452,10 +14829,18 @@
         <v>0</v>
       </c>
       <c r="H421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I421">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J421">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>44</v>
       </c>
@@ -11478,10 +14863,18 @@
         <v>0</v>
       </c>
       <c r="H422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I422">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J422">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>44</v>
       </c>
@@ -11504,10 +14897,18 @@
         <v>0</v>
       </c>
       <c r="H423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I423">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J423">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>44</v>
       </c>
@@ -11530,10 +14931,18 @@
         <v>0</v>
       </c>
       <c r="H424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I424">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>43</v>
       </c>
@@ -11556,10 +14965,18 @@
         <v>0</v>
       </c>
       <c r="H425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I425">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>44</v>
       </c>
@@ -11582,10 +14999,18 @@
         <v>0</v>
       </c>
       <c r="H426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I426">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>44</v>
       </c>
@@ -11608,10 +15033,18 @@
         <v>0</v>
       </c>
       <c r="H427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I427">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>44</v>
       </c>
@@ -11634,10 +15067,18 @@
         <v>0</v>
       </c>
       <c r="H428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I428">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>44</v>
       </c>
@@ -11660,10 +15101,18 @@
         <v>0</v>
       </c>
       <c r="H429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I429">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>44</v>
       </c>
@@ -11686,10 +15135,18 @@
         <v>0</v>
       </c>
       <c r="H430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I430">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>45</v>
       </c>
@@ -11712,10 +15169,18 @@
         <v>0.12322066901968</v>
       </c>
       <c r="H431">
+        <f t="shared" si="12"/>
+        <v>0.67742750323746304</v>
+      </c>
+      <c r="I431">
+        <f t="shared" si="13"/>
+        <v>0.92386884127682301</v>
+      </c>
+      <c r="J431">
         <v>0.24150807342950301</v>
       </c>
     </row>
-    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>45</v>
       </c>
@@ -11738,10 +15203,18 @@
         <v>6.0051752829566901E-2</v>
       </c>
       <c r="H432">
+        <f t="shared" si="12"/>
+        <v>0.79112792057043313</v>
+      </c>
+      <c r="I432">
+        <f t="shared" si="13"/>
+        <v>0.91123142622956688</v>
+      </c>
+      <c r="J432">
         <v>0.11769927275445199</v>
       </c>
     </row>
-    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>45</v>
       </c>
@@ -11764,10 +15237,18 @@
         <v>2.0156360087705001E-2</v>
       </c>
       <c r="H433">
+        <f t="shared" si="12"/>
+        <v>0.9061594296622949</v>
+      </c>
+      <c r="I433">
+        <f t="shared" si="13"/>
+        <v>0.946472149837705</v>
+      </c>
+      <c r="J433">
         <v>3.9505739831322398E-2</v>
       </c>
     </row>
-    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>45</v>
       </c>
@@ -11790,10 +15271,18 @@
         <v>5.2285861608389099E-2</v>
       </c>
       <c r="H434">
+        <f t="shared" si="12"/>
+        <v>0.84787647609161088</v>
+      </c>
+      <c r="I434">
+        <f t="shared" si="13"/>
+        <v>0.95244819930838909</v>
+      </c>
+      <c r="J434">
         <v>0.10247840565308799</v>
       </c>
     </row>
-    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>45</v>
       </c>
@@ -11816,10 +15305,18 @@
         <v>0</v>
       </c>
       <c r="H435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I435">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>45</v>
       </c>
@@ -11842,10 +15339,18 @@
         <v>0</v>
       </c>
       <c r="H436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I436">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>45</v>
       </c>
@@ -11868,10 +15373,18 @@
         <v>7.5757576125000002E-3</v>
       </c>
       <c r="H437">
+        <f t="shared" si="12"/>
+        <v>0.98484848467500008</v>
+      </c>
+      <c r="I437">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J437">
         <v>1.4848212076105099E-2</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>45</v>
       </c>
@@ -11894,10 +15407,18 @@
         <v>0</v>
       </c>
       <c r="H438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I438">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J438">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>45</v>
       </c>
@@ -11920,10 +15441,18 @@
         <v>0</v>
       </c>
       <c r="H439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I439">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>44</v>
       </c>
@@ -11946,10 +15475,18 @@
         <v>0</v>
       </c>
       <c r="H440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I440">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J440">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>45</v>
       </c>
@@ -11972,10 +15509,18 @@
         <v>0</v>
       </c>
       <c r="H441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I441">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J441">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>45</v>
       </c>
@@ -11998,10 +15543,18 @@
         <v>0</v>
       </c>
       <c r="H442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I442">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J442">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>45</v>
       </c>
@@ -12024,10 +15577,18 @@
         <v>0</v>
       </c>
       <c r="H443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I443">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J443">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>45</v>
       </c>
@@ -12050,10 +15611,18 @@
         <v>0</v>
       </c>
       <c r="H444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I444">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J444">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>45</v>
       </c>
@@ -12076,11 +15645,19 @@
         <v>0</v>
       </c>
       <c r="H445">
+        <f t="shared" si="12"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="I445">
+        <f t="shared" si="13"/>
+        <v>0.99999999989999999</v>
+      </c>
+      <c r="J445">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H445" xr:uid="{11E1B5F4-C23F-4BCC-AAF3-9B4F3A413D3C}"/>
+  <autoFilter ref="A1:J445" xr:uid="{11E1B5F4-C23F-4BCC-AAF3-9B4F3A413D3C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
